--- a/projects/test_building/input/Scenario_VentilationTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_VentilationTechnology_Availability.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17355"/>
+    <workbookView xWindow="0" yWindow="770" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -697,16 +697,16 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AS8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
